--- a/CrimeDistrict/New Microsoft Excel Worksheet.xlsx
+++ b/CrimeDistrict/New Microsoft Excel Worksheet.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,12 +138,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -161,7 +161,12 @@
     <c:floor>
       <c:thickness val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+            <a:alpha val="27000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -213,52 +218,131 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
               <a:contourClr>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:contourClr>
             </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>NORTHERN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NORTHEASTERN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SOUTHEASTERN</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>CENTRAL</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>SOUTHERN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SOUTHWESTERN</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WESTERN</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>EASTERN</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>NORTHEASTERN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NORTHERN</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>NORTHWESTERN</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>SOUTHEASTERN</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>SOUTHERN</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SOUTHWESTERN</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>WESTERN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -270,31 +354,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,13 +391,14 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="84"/>
+        <c:gapDepth val="53"/>
         <c:shape val="box"/>
         <c:axId val="347399064"/>
         <c:axId val="347399392"/>
@@ -344,9 +429,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -369,53 +453,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="347399064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -434,13 +477,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:tint val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -506,200 +551,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="291">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -708,11 +588,242 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:tint val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="30000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="88000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -724,14 +835,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -743,14 +853,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -765,10 +874,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg2">
+          <a:lumMod val="75000"/>
+          <a:alpha val="27000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -779,14 +891,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -798,14 +908,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -814,14 +922,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -833,14 +940,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -852,14 +958,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -867,7 +972,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -880,9 +985,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -892,14 +996,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -911,12 +1014,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="0" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -925,14 +1025,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -941,9 +1042,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -953,17 +1053,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -975,9 +1076,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -990,10 +1090,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:sp3d/>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -1003,16 +1100,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1300,7 +1397,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,77 +1415,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>234</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>297</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>392</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>268</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B2">
+    <sortState ref="A2:B10">
+      <sortCondition descending="1" ref="B1:B2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
